--- a/biology/Médecine/Signe_de_Harzer/Signe_de_Harzer.xlsx
+++ b/biology/Médecine/Signe_de_Harzer/Signe_de_Harzer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le signe de Harzer désigne la palpation des battements cardiaques au niveau de l'angle costo-xiphoïdien gauche.
 Il est le témoin d'une déviation du choc de pointe normal, habituellement perçu au niveau du 5e espace intercostal gauche.
@@ -513,7 +525,9 @@
           <t>Méthode de recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le médecin plaçant son pouce sur l'angle costo-xiphoïdien gauche du patient, il lui demande d'inspirer profondément. 
 Le signe de Harzer est dit positif si le médecin perçoit les battements du cœur à ce niveau.
@@ -547,7 +561,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce signe témoigne d'une hypertrophie ventriculaire droite secondaire à :
 une insuffisance cardiaque droite sur une valvulopathie, notamment de la valve tricuspide ;
